--- a/nhe23-tables/Table 03 National Health Expenditures, by Source of Funds.xlsx
+++ b/nhe23-tables/Table 03 National Health Expenditures, by Source of Funds.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E118B7F2-1B55-4C45-9224-5E4061745FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54270912-62A9-4546-91A5-2D55BCC139BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 3'!$A$1:$X$32</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -166,6 +167,58 @@
     <t>Table 3 
 National Health Expenditures; Levels and Annual Percent Change, by Source of Funds: Selected Calendar Years 1960-2023</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Other Health Insurance Programs</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Other Third Party Payers and Programs and Public Health Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>National_Health_Expenditures_Billions</t>
+  </si>
+  <si>
+    <t>Health_Consumption_Expenditures_Billions</t>
+  </si>
+  <si>
+    <t>Out_of_pocket_Billions</t>
+  </si>
+  <si>
+    <t>Health_Insurance_Billions</t>
+  </si>
+  <si>
+    <t>Private_Health_Insurance_Billions</t>
+  </si>
+  <si>
+    <t>Medicare_Billions</t>
+  </si>
+  <si>
+    <t>Medicaid_Billions</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +235,7 @@
     <numFmt numFmtId="170" formatCode="#0.0_%;\-#0.0_%;&quot;-&quot;_._0_%"/>
     <numFmt numFmtId="171" formatCode="#0.0_%;\-#0.0_%;########0.0_%;_._0_%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +330,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +419,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
@@ -402,6 +491,34 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -688,21 +805,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="29" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="29" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -735,7 +852,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -824,7 +941,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -857,7 +974,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -946,7 +1063,7 @@
         <v>4866.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1152,7 @@
         <v>4627.7</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1241,7 @@
         <v>505.7</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1330,7 @@
         <v>3558.6</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1419,7 @@
         <v>1464.6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1508,7 @@
         <v>1029.8</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1597,7 @@
         <v>871.7</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1686,7 @@
         <v>591.4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1775,7 @@
         <v>280.3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1864,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +1953,7 @@
         <v>563.4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +2042,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="17" t="s">
         <v>14</v>
@@ -1958,7 +2075,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -2047,7 +2164,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2253,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2342,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2431,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2520,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2609,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2698,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -2670,7 +2787,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
@@ -2759,7 +2876,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2965,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
@@ -2937,7 +3054,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +3143,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>18</v>
       </c>
@@ -3047,7 +3164,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
@@ -3080,7 +3197,7 @@
       <c r="AB30" s="25"/>
       <c r="AC30" s="25"/>
     </row>
-    <row r="31" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3220,7 @@
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
     </row>
-    <row r="32" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>21</v>
       </c>
@@ -3131,4 +3248,1129 @@
   <pageMargins left="0" right="0" top="0.71" bottom="0.46" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC134E-5A5A-42D3-AB0B-D0AF1F8398FC}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="12" width="12.77734375" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="99.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="35">
+        <v>253.2</v>
+      </c>
+      <c r="C2" s="36">
+        <v>232.7</v>
+      </c>
+      <c r="D2" s="36">
+        <v>55.3</v>
+      </c>
+      <c r="E2" s="36">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F2" s="36">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G2" s="36">
+        <v>37.4</v>
+      </c>
+      <c r="H2" s="36">
+        <v>26</v>
+      </c>
+      <c r="I2" s="36">
+        <v>14.5</v>
+      </c>
+      <c r="J2" s="36">
+        <v>11.5</v>
+      </c>
+      <c r="K2" s="36">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L2" s="36">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M2" s="31">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="35">
+        <v>718.7</v>
+      </c>
+      <c r="C3" s="36">
+        <v>670.2</v>
+      </c>
+      <c r="D3" s="36">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="E3" s="36">
+        <v>431.1</v>
+      </c>
+      <c r="F3" s="36">
+        <v>225.9</v>
+      </c>
+      <c r="G3" s="36">
+        <v>110.2</v>
+      </c>
+      <c r="H3" s="36">
+        <v>73.7</v>
+      </c>
+      <c r="I3" s="36">
+        <v>42.6</v>
+      </c>
+      <c r="J3" s="36">
+        <v>31.1</v>
+      </c>
+      <c r="K3" s="36">
+        <v>21.4</v>
+      </c>
+      <c r="L3" s="36">
+        <v>105.3</v>
+      </c>
+      <c r="M3" s="31">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1366</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1280.3</v>
+      </c>
+      <c r="D4" s="36">
+        <v>193.6</v>
+      </c>
+      <c r="E4" s="36">
+        <v>902</v>
+      </c>
+      <c r="F4" s="36">
+        <v>441</v>
+      </c>
+      <c r="G4" s="36">
+        <v>224.8</v>
+      </c>
+      <c r="H4" s="36">
+        <v>200.4</v>
+      </c>
+      <c r="I4" s="36">
+        <v>116.8</v>
+      </c>
+      <c r="J4" s="36">
+        <v>83.5</v>
+      </c>
+      <c r="K4" s="36">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L4" s="36">
+        <v>184.8</v>
+      </c>
+      <c r="M4" s="31">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1483.4</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1393.4</v>
+      </c>
+      <c r="D5" s="36">
+        <v>200.9</v>
+      </c>
+      <c r="E5" s="36">
+        <v>995.9</v>
+      </c>
+      <c r="F5" s="36">
+        <v>483.4</v>
+      </c>
+      <c r="G5" s="36">
+        <v>247.7</v>
+      </c>
+      <c r="H5" s="36">
+        <v>224.1</v>
+      </c>
+      <c r="I5" s="36">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="J5" s="36">
+        <v>91.9</v>
+      </c>
+      <c r="K5" s="36">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="L5" s="36">
+        <v>196.7</v>
+      </c>
+      <c r="M5" s="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1631</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1529.6</v>
+      </c>
+      <c r="D6" s="36">
+        <v>219.1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1098.0999999999999</v>
+      </c>
+      <c r="F6" s="36">
+        <v>537.5</v>
+      </c>
+      <c r="G6" s="36">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="H6" s="36">
+        <v>248.1</v>
+      </c>
+      <c r="I6" s="36">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="J6" s="36">
+        <v>102.8</v>
+      </c>
+      <c r="K6" s="36">
+        <v>47.1</v>
+      </c>
+      <c r="L6" s="36">
+        <v>212.3</v>
+      </c>
+      <c r="M6" s="31">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1770.4</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1661.8</v>
+      </c>
+      <c r="D7" s="36">
+        <v>235.1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1195.9000000000001</v>
+      </c>
+      <c r="F7" s="36">
+        <v>589.29999999999995</v>
+      </c>
+      <c r="G7" s="36">
+        <v>282.7</v>
+      </c>
+      <c r="H7" s="36">
+        <v>269</v>
+      </c>
+      <c r="I7" s="36">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="J7" s="36">
+        <v>108.2</v>
+      </c>
+      <c r="K7" s="36">
+        <v>55</v>
+      </c>
+      <c r="L7" s="36">
+        <v>230.7</v>
+      </c>
+      <c r="M7" s="31">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1894.7</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1777.8</v>
+      </c>
+      <c r="D8" s="36">
+        <v>248.4</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1288</v>
+      </c>
+      <c r="F8" s="36">
+        <v>626.1</v>
+      </c>
+      <c r="G8" s="36">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="H8" s="36">
+        <v>290.7</v>
+      </c>
+      <c r="I8" s="36">
+        <v>172.3</v>
+      </c>
+      <c r="J8" s="36">
+        <v>118.4</v>
+      </c>
+      <c r="K8" s="36">
+        <v>60</v>
+      </c>
+      <c r="L8" s="36">
+        <v>241.4</v>
+      </c>
+      <c r="M8" s="31">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="35">
+        <v>2026.6</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1901</v>
+      </c>
+      <c r="D9" s="36">
+        <v>264.5</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1384.1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>671.1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>339.8</v>
+      </c>
+      <c r="H9" s="36">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="I9" s="36">
+        <v>177.5</v>
+      </c>
+      <c r="J9" s="36">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="K9" s="36">
+        <v>63.9</v>
+      </c>
+      <c r="L9" s="36">
+        <v>252.5</v>
+      </c>
+      <c r="M9" s="31">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2165.1</v>
+      </c>
+      <c r="C10" s="36">
+        <v>2032.1</v>
+      </c>
+      <c r="D10" s="36">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1486</v>
+      </c>
+      <c r="F10" s="36">
+        <v>705.7</v>
+      </c>
+      <c r="G10" s="36">
+        <v>403.7</v>
+      </c>
+      <c r="H10" s="36">
+        <v>306.7</v>
+      </c>
+      <c r="I10" s="36">
+        <v>173.9</v>
+      </c>
+      <c r="J10" s="36">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="K10" s="36">
+        <v>70</v>
+      </c>
+      <c r="L10" s="36">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="M10" s="31">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="35">
+        <v>2305.5</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2159.3000000000002</v>
+      </c>
+      <c r="D11" s="36">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1581.8</v>
+      </c>
+      <c r="F11" s="36">
+        <v>748.6</v>
+      </c>
+      <c r="G11" s="36">
+        <v>432.7</v>
+      </c>
+      <c r="H11" s="36">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="I11" s="36">
+        <v>185.6</v>
+      </c>
+      <c r="J11" s="36">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="K11" s="36">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="L11" s="36">
+        <v>284</v>
+      </c>
+      <c r="M11" s="31">
+        <v>146.19999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="35">
+        <v>2402.4</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2246.1</v>
+      </c>
+      <c r="D12" s="36">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1663</v>
+      </c>
+      <c r="F12" s="36">
+        <v>769.7</v>
+      </c>
+      <c r="G12" s="36">
+        <v>467</v>
+      </c>
+      <c r="H12" s="36">
+        <v>344.4</v>
+      </c>
+      <c r="I12" s="36">
+        <v>203.2</v>
+      </c>
+      <c r="J12" s="36">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="K12" s="36">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L12" s="36">
+        <v>283</v>
+      </c>
+      <c r="M12" s="31">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2492.6999999999998</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2345.5</v>
+      </c>
+      <c r="D13" s="36">
+        <v>296.7</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1758.3</v>
+      </c>
+      <c r="F13" s="36">
+        <v>794.8</v>
+      </c>
+      <c r="G13" s="36">
+        <v>498.6</v>
+      </c>
+      <c r="H13" s="36">
+        <v>374.7</v>
+      </c>
+      <c r="I13" s="36">
+        <v>247.5</v>
+      </c>
+      <c r="J13" s="36">
+        <v>127.2</v>
+      </c>
+      <c r="K13" s="36">
+        <v>90.2</v>
+      </c>
+      <c r="L13" s="36">
+        <v>290.5</v>
+      </c>
+      <c r="M13" s="31">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2589.6</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2437.5</v>
+      </c>
+      <c r="D14" s="36">
+        <v>301.5</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1832.6</v>
+      </c>
+      <c r="F14" s="36">
+        <v>820.2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>519.5</v>
+      </c>
+      <c r="H14" s="36">
+        <v>397.4</v>
+      </c>
+      <c r="I14" s="36">
+        <v>266.5</v>
+      </c>
+      <c r="J14" s="36">
+        <v>130.9</v>
+      </c>
+      <c r="K14" s="36">
+        <v>95.6</v>
+      </c>
+      <c r="L14" s="36">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="M14" s="31">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="35">
+        <v>2676.5</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2517.8000000000002</v>
+      </c>
+      <c r="D15" s="36">
+        <v>310.2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1902.4</v>
+      </c>
+      <c r="F15" s="36">
+        <v>851</v>
+      </c>
+      <c r="G15" s="36">
+        <v>544.6</v>
+      </c>
+      <c r="H15" s="36">
+        <v>406.7</v>
+      </c>
+      <c r="I15" s="36">
+        <v>247.3</v>
+      </c>
+      <c r="J15" s="36">
+        <v>159.5</v>
+      </c>
+      <c r="K15" s="36">
+        <v>100.1</v>
+      </c>
+      <c r="L15" s="36">
+        <v>305.2</v>
+      </c>
+      <c r="M15" s="31">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2783.3</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2620.1</v>
+      </c>
+      <c r="D16" s="36">
+        <v>323.2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1971.5</v>
+      </c>
+      <c r="F16" s="36">
+        <v>878.1</v>
+      </c>
+      <c r="G16" s="36">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="H16" s="36">
+        <v>422.7</v>
+      </c>
+      <c r="I16" s="36">
+        <v>243.3</v>
+      </c>
+      <c r="J16" s="36">
+        <v>179.5</v>
+      </c>
+      <c r="K16" s="36">
+        <v>102.4</v>
+      </c>
+      <c r="L16" s="36">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="M16" s="31">
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="35">
+        <v>2855.9</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2692.9</v>
+      </c>
+      <c r="D17" s="36">
+        <v>330.8</v>
+      </c>
+      <c r="E17" s="36">
+        <v>2019</v>
+      </c>
+      <c r="F17" s="36">
+        <v>879.3</v>
+      </c>
+      <c r="G17" s="36">
+        <v>588.9</v>
+      </c>
+      <c r="H17" s="36">
+        <v>445</v>
+      </c>
+      <c r="I17" s="36">
+        <v>256.7</v>
+      </c>
+      <c r="J17" s="36">
+        <v>188.3</v>
+      </c>
+      <c r="K17" s="36">
+        <v>105.9</v>
+      </c>
+      <c r="L17" s="36">
+        <v>343</v>
+      </c>
+      <c r="M17" s="31">
+        <v>163.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="35">
+        <v>3002.1</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2842.2</v>
+      </c>
+      <c r="D18" s="36">
+        <v>340.4</v>
+      </c>
+      <c r="E18" s="36">
+        <v>2150.6</v>
+      </c>
+      <c r="F18" s="36">
+        <v>922.5</v>
+      </c>
+      <c r="G18" s="36">
+        <v>617.29999999999995</v>
+      </c>
+      <c r="H18" s="36">
+        <v>498.2</v>
+      </c>
+      <c r="I18" s="36">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="J18" s="36">
+        <v>192.2</v>
+      </c>
+      <c r="K18" s="36">
+        <v>112.6</v>
+      </c>
+      <c r="L18" s="36">
+        <v>351.2</v>
+      </c>
+      <c r="M18" s="31">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="35">
+        <v>3165.5</v>
+      </c>
+      <c r="C19" s="36">
+        <v>3000.7</v>
+      </c>
+      <c r="D19" s="36">
+        <v>352.7</v>
+      </c>
+      <c r="E19" s="36">
+        <v>2288</v>
+      </c>
+      <c r="F19" s="36">
+        <v>976.3</v>
+      </c>
+      <c r="G19" s="36">
+        <v>647.70000000000005</v>
+      </c>
+      <c r="H19" s="36">
+        <v>543</v>
+      </c>
+      <c r="I19" s="36">
+        <v>342.8</v>
+      </c>
+      <c r="J19" s="36">
+        <v>200.2</v>
+      </c>
+      <c r="K19" s="36">
+        <v>121.1</v>
+      </c>
+      <c r="L19" s="36">
+        <v>360</v>
+      </c>
+      <c r="M19" s="31">
+        <v>164.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="35">
+        <v>3307.9</v>
+      </c>
+      <c r="C20" s="36">
+        <v>3138.9</v>
+      </c>
+      <c r="D20" s="36">
+        <v>364.9</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2394.5</v>
+      </c>
+      <c r="F20" s="36">
+        <v>1028.3</v>
+      </c>
+      <c r="G20" s="36">
+        <v>675.9</v>
+      </c>
+      <c r="H20" s="36">
+        <v>564.9</v>
+      </c>
+      <c r="I20" s="36">
+        <v>357.8</v>
+      </c>
+      <c r="J20" s="36">
+        <v>207</v>
+      </c>
+      <c r="K20" s="36">
+        <v>125.4</v>
+      </c>
+      <c r="L20" s="36">
+        <v>379.5</v>
+      </c>
+      <c r="M20" s="31">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="35">
+        <v>3446.4</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3263.1</v>
+      </c>
+      <c r="D21" s="36">
+        <v>370.3</v>
+      </c>
+      <c r="E21" s="36">
+        <v>2493.4</v>
+      </c>
+      <c r="F21" s="36">
+        <v>1077.8</v>
+      </c>
+      <c r="G21" s="36">
+        <v>705</v>
+      </c>
+      <c r="H21" s="36">
+        <v>578.5</v>
+      </c>
+      <c r="I21" s="36">
+        <v>361.4</v>
+      </c>
+      <c r="J21" s="36">
+        <v>217.1</v>
+      </c>
+      <c r="K21" s="36">
+        <v>132.1</v>
+      </c>
+      <c r="L21" s="36">
+        <v>399.4</v>
+      </c>
+      <c r="M21" s="31">
+        <v>183.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="35">
+        <v>3603.8</v>
+      </c>
+      <c r="C22" s="36">
+        <v>3411</v>
+      </c>
+      <c r="D22" s="36">
+        <v>386.2</v>
+      </c>
+      <c r="E22" s="36">
+        <v>2609</v>
+      </c>
+      <c r="F22" s="36">
+        <v>1124.3</v>
+      </c>
+      <c r="G22" s="36">
+        <v>751.6</v>
+      </c>
+      <c r="H22" s="36">
+        <v>596.5</v>
+      </c>
+      <c r="I22" s="36">
+        <v>372.3</v>
+      </c>
+      <c r="J22" s="36">
+        <v>224.2</v>
+      </c>
+      <c r="K22" s="36">
+        <v>136.5</v>
+      </c>
+      <c r="L22" s="36">
+        <v>415.9</v>
+      </c>
+      <c r="M22" s="31">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="35">
+        <v>3762.1</v>
+      </c>
+      <c r="C23" s="36">
+        <v>3563.8</v>
+      </c>
+      <c r="D23" s="36">
+        <v>403</v>
+      </c>
+      <c r="E23" s="36">
+        <v>2717.5</v>
+      </c>
+      <c r="F23" s="36">
+        <v>1152.9000000000001</v>
+      </c>
+      <c r="G23" s="36">
+        <v>804.5</v>
+      </c>
+      <c r="H23" s="36">
+        <v>615.1</v>
+      </c>
+      <c r="I23" s="36">
+        <v>387.7</v>
+      </c>
+      <c r="J23" s="36">
+        <v>227.4</v>
+      </c>
+      <c r="K23" s="36">
+        <v>145</v>
+      </c>
+      <c r="L23" s="36">
+        <v>443.2</v>
+      </c>
+      <c r="M23" s="31">
+        <v>198.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="35">
+        <v>4153.8999999999996</v>
+      </c>
+      <c r="C24" s="36">
+        <v>3953.9</v>
+      </c>
+      <c r="D24" s="36">
+        <v>398.1</v>
+      </c>
+      <c r="E24" s="36">
+        <v>2811.9</v>
+      </c>
+      <c r="F24" s="36">
+        <v>1147.9000000000001</v>
+      </c>
+      <c r="G24" s="36">
+        <v>834.6</v>
+      </c>
+      <c r="H24" s="36">
+        <v>672.3</v>
+      </c>
+      <c r="I24" s="36">
+        <v>460.6</v>
+      </c>
+      <c r="J24" s="36">
+        <v>211.7</v>
+      </c>
+      <c r="K24" s="36">
+        <v>157.1</v>
+      </c>
+      <c r="L24" s="36">
+        <v>743.9</v>
+      </c>
+      <c r="M24" s="31">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="35">
+        <v>4327.7</v>
+      </c>
+      <c r="C25" s="36">
+        <v>4109.2</v>
+      </c>
+      <c r="D25" s="36">
+        <v>440.9</v>
+      </c>
+      <c r="E25" s="36">
+        <v>3028.4</v>
+      </c>
+      <c r="F25" s="36">
+        <v>1230.3</v>
+      </c>
+      <c r="G25" s="36">
+        <v>895.6</v>
+      </c>
+      <c r="H25" s="36">
+        <v>736.2</v>
+      </c>
+      <c r="I25" s="36">
+        <v>514.5</v>
+      </c>
+      <c r="J25" s="36">
+        <v>221.7</v>
+      </c>
+      <c r="K25" s="36">
+        <v>166.3</v>
+      </c>
+      <c r="L25" s="36">
+        <v>639.9</v>
+      </c>
+      <c r="M25" s="31">
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="35">
+        <v>4525.8</v>
+      </c>
+      <c r="C26" s="36">
+        <v>4298.6000000000004</v>
+      </c>
+      <c r="D26" s="36">
+        <v>471.5</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3245.6</v>
+      </c>
+      <c r="F26" s="36">
+        <v>1313.8</v>
+      </c>
+      <c r="G26" s="36">
+        <v>952.5</v>
+      </c>
+      <c r="H26" s="36">
+        <v>807.5</v>
+      </c>
+      <c r="I26" s="36">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="J26" s="36">
+        <v>236.8</v>
+      </c>
+      <c r="K26" s="36">
+        <v>171.8</v>
+      </c>
+      <c r="L26" s="36">
+        <v>581.5</v>
+      </c>
+      <c r="M26" s="31">
+        <v>227.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="35">
+        <v>4866.5</v>
+      </c>
+      <c r="C27" s="36">
+        <v>4627.7</v>
+      </c>
+      <c r="D27" s="36">
+        <v>505.7</v>
+      </c>
+      <c r="E27" s="36">
+        <v>3558.6</v>
+      </c>
+      <c r="F27" s="36">
+        <v>1464.6</v>
+      </c>
+      <c r="G27" s="36">
+        <v>1029.8</v>
+      </c>
+      <c r="H27" s="36">
+        <v>871.7</v>
+      </c>
+      <c r="I27" s="36">
+        <v>591.4</v>
+      </c>
+      <c r="J27" s="36">
+        <v>280.3</v>
+      </c>
+      <c r="K27" s="36">
+        <v>192.5</v>
+      </c>
+      <c r="L27" s="36">
+        <v>563.4</v>
+      </c>
+      <c r="M27" s="31">
+        <v>238.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>